--- a/forms/app/moh_515_post_outbreak.xlsx
+++ b/forms/app/moh_515_post_outbreak.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="40">
   <si>
     <t>type</t>
   </si>
@@ -33,6 +33,12 @@
     <t>appearence</t>
   </si>
   <si>
+    <t>constraint</t>
+  </si>
+  <si>
+    <t>constraint_message</t>
+  </si>
+  <si>
     <t>begin group</t>
   </si>
   <si>
@@ -85,6 +91,9 @@
   </si>
   <si>
     <t>How many CHPs are in your area?</t>
+  </si>
+  <si>
+    <t>numbers</t>
   </si>
   <si>
     <t>chp_reported_total</t>
@@ -130,7 +139,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -142,13 +151,23 @@
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -157,12 +176,15 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -387,6 +409,10 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="3" max="3" width="29.63"/>
+    <col customWidth="1" min="8" max="8" width="25.13"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
@@ -407,109 +433,125 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D2" s="1"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>12</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>12</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="2"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -552,36 +594,36 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/forms/app/moh_515_post_outbreak.xlsx
+++ b/forms/app/moh_515_post_outbreak.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="52">
   <si>
     <t>type</t>
   </si>
@@ -42,7 +42,7 @@
     <t>begin group</t>
   </si>
   <si>
-    <t>inputs</t>
+    <t>form_summary</t>
   </si>
   <si>
     <t>Form Summary</t>
@@ -54,7 +54,7 @@
     <t>cha_name</t>
   </si>
   <si>
-    <t>What is your name?</t>
+    <t>What Is Your Name?</t>
   </si>
   <si>
     <t>yes</t>
@@ -69,19 +69,19 @@
     <t>cha_area</t>
   </si>
   <si>
-    <t>What is your area?</t>
+    <t>What Is Your Area?</t>
   </si>
   <si>
     <t>cha_facility</t>
   </si>
   <si>
-    <t>What is your linked facility?</t>
+    <t>What Is Your Linked Facility?</t>
   </si>
   <si>
     <t>cha_county</t>
   </si>
   <si>
-    <t>What county do you belong to?</t>
+    <t>What County Do You Belong To?</t>
   </si>
   <si>
     <t>integer</t>
@@ -90,7 +90,7 @@
     <t>chp_total</t>
   </si>
   <si>
-    <t>How many CHPs are in your area?</t>
+    <t>How Many CHPs Are In Your Area?</t>
   </si>
   <si>
     <t>numbers</t>
@@ -99,10 +99,46 @@
     <t>chp_reported_total</t>
   </si>
   <si>
-    <t>How many CHPs submitted report?</t>
+    <t>How Many CHPs Submitted Monthly Report?</t>
   </si>
   <si>
     <t>end group</t>
+  </si>
+  <si>
+    <t>household_indicators</t>
+  </si>
+  <si>
+    <t>Household Indicators</t>
+  </si>
+  <si>
+    <t>total_households</t>
+  </si>
+  <si>
+    <t>Total Households In The Area?</t>
+  </si>
+  <si>
+    <t>new_households</t>
+  </si>
+  <si>
+    <t>Number Of New Households Registered This Month?</t>
+  </si>
+  <si>
+    <t>new_households_visited</t>
+  </si>
+  <si>
+    <t>Number Of New Households Visited This Month?</t>
+  </si>
+  <si>
+    <t>new_households_with_clean_water</t>
+  </si>
+  <si>
+    <t>Number Of New Households Visited This Month With Clean Water Access?</t>
+  </si>
+  <si>
+    <t>new_households_with_latrines</t>
+  </si>
+  <si>
+    <t>Number Of New Households Visited This Month With Latrines/Toilets?</t>
   </si>
   <si>
     <t>form_title</t>
@@ -410,7 +446,8 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="3" max="3" width="29.63"/>
+    <col customWidth="1" min="2" max="2" width="18.88"/>
+    <col customWidth="1" min="3" max="3" width="60.13"/>
     <col customWidth="1" min="8" max="8" width="25.13"/>
   </cols>
   <sheetData>
@@ -551,6 +588,101 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="s">
         <v>29</v>
       </c>
     </row>
@@ -594,36 +726,36 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/forms/app/moh_515_post_outbreak.xlsx
+++ b/forms/app/moh_515_post_outbreak.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="65">
   <si>
     <t>type</t>
   </si>
@@ -139,6 +139,45 @@
   </si>
   <si>
     <t>Number Of New Households Visited This Month With Latrines/Toilets?</t>
+  </si>
+  <si>
+    <t>cholera_cases</t>
+  </si>
+  <si>
+    <t>Cholera Cases</t>
+  </si>
+  <si>
+    <t>num_screened</t>
+  </si>
+  <si>
+    <t>Number Of Persons Screened For Cholera</t>
+  </si>
+  <si>
+    <t>num_referred</t>
+  </si>
+  <si>
+    <t>Number Of Presumptive Cholera Persons Referred For Diagnosis</t>
+  </si>
+  <si>
+    <t>num_referred_reached</t>
+  </si>
+  <si>
+    <t>Number Of Referred Persons Who Reached Health Facility</t>
+  </si>
+  <si>
+    <t>${num_referred} &gt;0</t>
+  </si>
+  <si>
+    <t>num_confirmed_cases</t>
+  </si>
+  <si>
+    <t>Number Of Confirmed Cholera Cases At Health Facility</t>
+  </si>
+  <si>
+    <t>num_deaths</t>
+  </si>
+  <si>
+    <t>Number Of Deaths Due To Cholera In The Month</t>
   </si>
   <si>
     <t>form_title</t>
@@ -448,6 +487,7 @@
   <cols>
     <col customWidth="1" min="2" max="2" width="18.88"/>
     <col customWidth="1" min="3" max="3" width="60.13"/>
+    <col customWidth="1" min="5" max="5" width="22.0"/>
     <col customWidth="1" min="8" max="8" width="25.13"/>
   </cols>
   <sheetData>
@@ -683,6 +723,112 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="s">
         <v>29</v>
       </c>
     </row>
@@ -726,36 +872,36 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/forms/app/moh_515_post_outbreak.xlsx
+++ b/forms/app/moh_515_post_outbreak.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="73">
   <si>
     <t>type</t>
   </si>
@@ -178,6 +178,30 @@
   </si>
   <si>
     <t>Number Of Deaths Due To Cholera In The Month</t>
+  </si>
+  <si>
+    <t>community_activities</t>
+  </si>
+  <si>
+    <t>Community Activities</t>
+  </si>
+  <si>
+    <t>total_dialogue_days</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Number Of Dialogue Days Held </t>
+  </si>
+  <si>
+    <t>total_action_days</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Number Of Action Days Held </t>
+  </si>
+  <si>
+    <t>total_units_meetings_days</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Number Of Units Meetings Held </t>
   </si>
   <si>
     <t>form_title</t>
@@ -832,6 +856,73 @@
         <v>29</v>
       </c>
     </row>
+    <row r="24">
+      <c r="A24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -872,36 +963,36 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/forms/app/moh_515_post_outbreak.xlsx
+++ b/forms/app/moh_515_post_outbreak.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="75">
   <si>
     <t>type</t>
   </si>
@@ -94,6 +94,12 @@
   </si>
   <si>
     <t>numbers</t>
+  </si>
+  <si>
+    <t>.&gt;=0</t>
+  </si>
+  <si>
+    <t>Value should be greater or equal to zero</t>
   </si>
   <si>
     <t>chp_reported_total</t>
@@ -628,18 +634,22 @@
       <c r="F7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
+      <c r="G7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>14</v>
@@ -647,12 +657,16 @@
       <c r="F8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G8" s="1"/>
-      <c r="H8" s="2"/>
+      <c r="G8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10">
@@ -660,10 +674,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11">
@@ -671,16 +685,22 @@
         <v>23</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>26</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="12">
@@ -688,16 +708,22 @@
         <v>23</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>26</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="13">
@@ -705,16 +731,22 @@
         <v>23</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>26</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="14">
@@ -722,10 +754,10 @@
         <v>23</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>14</v>
@@ -736,10 +768,10 @@
         <v>23</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>14</v>
@@ -747,7 +779,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17">
@@ -755,10 +787,10 @@
         <v>8</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D17" s="1"/>
       <c r="F17" s="1"/>
@@ -768,16 +800,22 @@
         <v>23</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>26</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="19">
@@ -785,16 +823,22 @@
         <v>23</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>26</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="20">
@@ -802,19 +846,25 @@
         <v>23</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>26</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="21">
@@ -822,16 +872,22 @@
         <v>23</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>26</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="22">
@@ -839,21 +895,27 @@
         <v>23</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>26</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24">
@@ -861,10 +923,10 @@
         <v>8</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25">
@@ -872,16 +934,22 @@
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>26</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="26">
@@ -889,16 +957,22 @@
         <v>23</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>26</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="27">
@@ -906,21 +980,27 @@
         <v>23</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>26</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -963,36 +1043,36 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/forms/app/moh_515_post_outbreak.xlsx
+++ b/forms/app/moh_515_post_outbreak.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="75">
   <si>
     <t>type</t>
   </si>
@@ -668,6 +668,9 @@
       <c r="A9" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="B9" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
@@ -781,6 +784,9 @@
       <c r="A16" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="B16" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
@@ -917,6 +923,9 @@
       <c r="A23" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="B23" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
@@ -1001,6 +1010,9 @@
     <row r="28">
       <c r="A28" s="1" t="s">
         <v>31</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/forms/app/moh_515_post_outbreak.xlsx
+++ b/forms/app/moh_515_post_outbreak.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="74">
   <si>
     <t>type</t>
   </si>
@@ -42,42 +42,42 @@
     <t>begin group</t>
   </si>
   <si>
+    <t>hidden_inputs</t>
+  </si>
+  <si>
+    <t>./source='user'</t>
+  </si>
+  <si>
+    <t>field-list</t>
+  </si>
+  <si>
+    <t>hidden</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>end group</t>
+  </si>
+  <si>
     <t>form_summary</t>
   </si>
   <si>
     <t>Form Summary</t>
   </si>
   <si>
-    <t>db:person</t>
-  </si>
-  <si>
-    <t>cha_name</t>
-  </si>
-  <si>
-    <t>What Is Your Name?</t>
+    <t>text</t>
+  </si>
+  <si>
+    <t>cha_facility</t>
+  </si>
+  <si>
+    <t>What Is Your Linked Facility?</t>
   </si>
   <si>
     <t>yes</t>
   </si>
   <si>
-    <t>db-object</t>
-  </si>
-  <si>
-    <t>text</t>
-  </si>
-  <si>
-    <t>cha_area</t>
-  </si>
-  <si>
-    <t>What Is Your Area?</t>
-  </si>
-  <si>
-    <t>cha_facility</t>
-  </si>
-  <si>
-    <t>What Is Your Linked Facility?</t>
-  </si>
-  <si>
     <t>cha_county</t>
   </si>
   <si>
@@ -106,9 +106,6 @@
   </si>
   <si>
     <t>How Many CHPs Submitted Monthly Report?</t>
-  </si>
-  <si>
-    <t>end group</t>
   </si>
   <si>
     <t>household_indicators</t>
@@ -554,91 +551,78 @@
       <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="1"/>
+      <c r="F2" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>14</v>
+      <c r="D5" s="1"/>
+      <c r="F5" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8">
@@ -646,13 +630,13 @@
         <v>23</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>26</v>
@@ -666,44 +650,47 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>9</v>
+        <v>29</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12">
@@ -711,13 +698,13 @@
         <v>23</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>26</v>
@@ -734,13 +721,13 @@
         <v>23</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>26</v>
@@ -757,13 +744,22 @@
         <v>23</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="15">
@@ -771,57 +767,50 @@
         <v>23</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>32</v>
+        <v>41</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D17" s="1"/>
-      <c r="F17" s="1"/>
+        <v>31</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>28</v>
+        <v>43</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="F18" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="19">
@@ -829,15 +818,15 @@
         <v>23</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" s="2" t="s">
         <v>26</v>
       </c>
       <c r="G19" s="2" t="s">
@@ -852,16 +841,13 @@
         <v>23</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>26</v>
@@ -878,13 +864,16 @@
         <v>23</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>26</v>
@@ -901,13 +890,13 @@
         <v>23</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>26</v>
@@ -921,44 +910,47 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>44</v>
+        <v>54</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26">
@@ -966,21 +958,21 @@
         <v>23</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G26" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H26" s="2" t="s">
+      <c r="G26" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H26" s="1" t="s">
         <v>28</v>
       </c>
     </row>
@@ -989,13 +981,13 @@
         <v>23</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>26</v>
@@ -1009,10 +1001,33 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1055,36 +1070,36 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/forms/app/moh_515_post_outbreak.xlsx
+++ b/forms/app/moh_515_post_outbreak.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="89">
   <si>
     <t>type</t>
   </si>
@@ -45,6 +45,9 @@
     <t>hidden_inputs</t>
   </si>
   <si>
+    <t>CHA's Details</t>
+  </si>
+  <si>
     <t>./source='user'</t>
   </si>
   <si>
@@ -57,6 +60,18 @@
     <t>source</t>
   </si>
   <si>
+    <t>source_id</t>
+  </si>
+  <si>
+    <t>db:person</t>
+  </si>
+  <si>
+    <t>_id</t>
+  </si>
+  <si>
+    <t>Contact</t>
+  </si>
+  <si>
     <t>end group</t>
   </si>
   <si>
@@ -99,61 +114,91 @@
     <t>.&gt;=0</t>
   </si>
   <si>
+    <t>Number should be greater or equal to zero</t>
+  </si>
+  <si>
+    <t>chp_reported_total</t>
+  </si>
+  <si>
+    <t>How Many CHPs Submitted Monthly Report?</t>
+  </si>
+  <si>
+    <t>${chp_total} &gt;0</t>
+  </si>
+  <si>
+    <t>.&lt;=${chp_total}</t>
+  </si>
+  <si>
+    <t>Number cannot exceed that of total CHPs</t>
+  </si>
+  <si>
+    <t>household_indicators</t>
+  </si>
+  <si>
+    <t>Household Indicators</t>
+  </si>
+  <si>
+    <t>total_households</t>
+  </si>
+  <si>
+    <t>Total Households In The Area?</t>
+  </si>
+  <si>
+    <t>new_households</t>
+  </si>
+  <si>
+    <t>Number Of New Households Registered This Month?</t>
+  </si>
+  <si>
+    <t>new_households_visited</t>
+  </si>
+  <si>
+    <t>Number Of New Households Visited This Month?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">${new_households} &gt;0 </t>
+  </si>
+  <si>
+    <t>.&lt;= ${new_households}</t>
+  </si>
+  <si>
+    <t>Number cannot exceed that of new households</t>
+  </si>
+  <si>
+    <t>new_households_with_clean_water</t>
+  </si>
+  <si>
+    <t>Number Of New Households Visited This Month With Clean Water Access?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">${new_households_visited} &gt;0 </t>
+  </si>
+  <si>
+    <t>.&lt;= ${new_households_visited}</t>
+  </si>
+  <si>
+    <t>Number cannot exceed that of total visited households</t>
+  </si>
+  <si>
+    <t>new_households_with_latrines</t>
+  </si>
+  <si>
+    <t>Number Of New Households Visited This Month With Latrines/Toilets?</t>
+  </si>
+  <si>
+    <t>cholera_cases</t>
+  </si>
+  <si>
+    <t>Cholera Cases</t>
+  </si>
+  <si>
+    <t>num_screened</t>
+  </si>
+  <si>
+    <t>Number Of Persons Screened For Cholera</t>
+  </si>
+  <si>
     <t>Value should be greater or equal to zero</t>
-  </si>
-  <si>
-    <t>chp_reported_total</t>
-  </si>
-  <si>
-    <t>How Many CHPs Submitted Monthly Report?</t>
-  </si>
-  <si>
-    <t>household_indicators</t>
-  </si>
-  <si>
-    <t>Household Indicators</t>
-  </si>
-  <si>
-    <t>total_households</t>
-  </si>
-  <si>
-    <t>Total Households In The Area?</t>
-  </si>
-  <si>
-    <t>new_households</t>
-  </si>
-  <si>
-    <t>Number Of New Households Registered This Month?</t>
-  </si>
-  <si>
-    <t>new_households_visited</t>
-  </si>
-  <si>
-    <t>Number Of New Households Visited This Month?</t>
-  </si>
-  <si>
-    <t>new_households_with_clean_water</t>
-  </si>
-  <si>
-    <t>Number Of New Households Visited This Month With Clean Water Access?</t>
-  </si>
-  <si>
-    <t>new_households_with_latrines</t>
-  </si>
-  <si>
-    <t>Number Of New Households Visited This Month With Latrines/Toilets?</t>
-  </si>
-  <si>
-    <t>cholera_cases</t>
-  </si>
-  <si>
-    <t>Cholera Cases</t>
-  </si>
-  <si>
-    <t>num_screened</t>
-  </si>
-  <si>
-    <t>Number Of Persons Screened For Cholera</t>
   </si>
   <si>
     <t>num_referred</t>
@@ -512,10 +557,11 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="18.88"/>
+    <col customWidth="1" min="2" max="2" width="34.0"/>
     <col customWidth="1" min="3" max="3" width="60.13"/>
-    <col customWidth="1" min="5" max="5" width="22.0"/>
-    <col customWidth="1" min="8" max="8" width="25.13"/>
+    <col customWidth="1" min="5" max="5" width="27.63"/>
+    <col customWidth="1" min="7" max="7" width="26.75"/>
+    <col customWidth="1" min="8" max="8" width="37.13"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -551,21 +597,23 @@
       <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="1"/>
+      <c r="C2" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -574,9 +622,11 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -584,450 +634,504 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D5" s="1"/>
-      <c r="F5" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>20</v>
+      <c r="D7" s="1"/>
+      <c r="F7" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="D8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>15</v>
+        <v>29</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>11</v>
+        <v>31</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>31</v>
+        <v>50</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D18" s="1"/>
+        <v>55</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="F18" s="1" t="s">
-        <v>11</v>
+        <v>31</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>20</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="D20" s="1"/>
       <c r="F20" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>26</v>
+        <v>59</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>28</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>28</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>28</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>43</v>
+        <v>67</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>57</v>
+        <v>70</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>11</v>
+        <v>31</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>20</v>
+        <v>72</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>56</v>
+        <v>75</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1070,36 +1174,36 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/forms/app/moh_515_post_outbreak.xlsx
+++ b/forms/app/moh_515_post_outbreak.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="88">
   <si>
     <t>type</t>
   </si>
@@ -196,9 +196,6 @@
   </si>
   <si>
     <t>Number Of Persons Screened For Cholera</t>
-  </si>
-  <si>
-    <t>Value should be greater or equal to zero</t>
   </si>
   <si>
     <t>num_referred</t>
@@ -937,7 +934,7 @@
         <v>32</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22">
@@ -945,10 +942,10 @@
         <v>28</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>25</v>
@@ -960,7 +957,7 @@
         <v>32</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23">
@@ -968,16 +965,16 @@
         <v>28</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="D23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>31</v>
@@ -986,7 +983,7 @@
         <v>32</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24">
@@ -994,10 +991,10 @@
         <v>28</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>68</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>25</v>
@@ -1009,7 +1006,7 @@
         <v>32</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25">
@@ -1017,10 +1014,10 @@
         <v>28</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>70</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>25</v>
@@ -1032,7 +1029,7 @@
         <v>32</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26">
@@ -1048,10 +1045,10 @@
         <v>8</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>72</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>12</v>
@@ -1062,10 +1059,10 @@
         <v>28</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>74</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>25</v>
@@ -1077,7 +1074,7 @@
         <v>32</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29">
@@ -1085,10 +1082,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>76</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>25</v>
@@ -1100,7 +1097,7 @@
         <v>32</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30">
@@ -1108,10 +1105,10 @@
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>78</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>25</v>
@@ -1123,7 +1120,7 @@
         <v>32</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31">
@@ -1131,7 +1128,7 @@
         <v>19</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1174,36 +1171,36 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/forms/app/moh_515_post_outbreak.xlsx
+++ b/forms/app/moh_515_post_outbreak.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="90">
   <si>
     <t>type</t>
   </si>
@@ -211,6 +211,12 @@
   </si>
   <si>
     <t>${num_referred} &gt;0</t>
+  </si>
+  <si>
+    <t>.&lt;=${num_referred}</t>
+  </si>
+  <si>
+    <t>Number cannot exceed those referred</t>
   </si>
   <si>
     <t>num_confirmed_cases</t>
@@ -980,10 +986,10 @@
         <v>31</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>33</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24">
@@ -991,10 +997,10 @@
         <v>28</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>25</v>
@@ -1014,10 +1020,10 @@
         <v>28</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>25</v>
@@ -1045,10 +1051,10 @@
         <v>8</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>12</v>
@@ -1059,10 +1065,10 @@
         <v>28</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>25</v>
@@ -1082,10 +1088,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>25</v>
@@ -1105,10 +1111,10 @@
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>25</v>
@@ -1128,7 +1134,7 @@
         <v>19</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1171,36 +1177,36 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/forms/app/moh_515_post_outbreak.xlsx
+++ b/forms/app/moh_515_post_outbreak.xlsx
@@ -399,7 +399,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -429,6 +429,9 @@
       <c r="H1" t="str">
         <v>constraint_message</v>
       </c>
+      <c r="I1" t="str">
+        <v>calculation</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
@@ -641,10 +644,10 @@
         <v>numbers</v>
       </c>
       <c r="G15" t="str">
-        <v>.&gt;=0</v>
+        <v>.&lt;=${total_households}</v>
       </c>
       <c r="H15" t="str">
-        <v>Number should be greater or equal to zero</v>
+        <v>Number should be less than or equal to total households</v>
       </c>
     </row>
     <row r="16">
@@ -678,7 +681,7 @@
         <v>integer</v>
       </c>
       <c r="B17" t="str">
-        <v>new_households_with_clean_water</v>
+        <v>households_with_clean_water</v>
       </c>
       <c r="C17" t="str">
         <v>Number Of Households Visited This Month With Clean Water Access?</v>
@@ -693,7 +696,7 @@
         <v>numbers</v>
       </c>
       <c r="G17" t="str">
-        <v>.&lt;=$(total_households_visited)</v>
+        <v>.&lt;=${total_households_visited}</v>
       </c>
       <c r="H17" t="str">
         <v>Number cannot exceed that of total households visited</v>
@@ -732,42 +735,33 @@
       <c r="B19" t="str">
         <v>household_indicators</v>
       </c>
+      <c r="I19" t="str">
+        <v/>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>begin group</v>
+        <v>calculate</v>
       </c>
       <c r="B20" t="str">
-        <v>cholera_cases</v>
-      </c>
-      <c r="C20" t="str">
-        <v>Cholera Cases</v>
-      </c>
-      <c r="F20" t="str">
-        <v>field-list</v>
+        <v>old_revisited</v>
+      </c>
+      <c r="I20" t="str">
+        <v>${total_households_visited} - ${new_households}</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>integer</v>
+        <v>begin group</v>
       </c>
       <c r="B21" t="str">
-        <v>num_screened</v>
+        <v>cholera_cases</v>
       </c>
       <c r="C21" t="str">
-        <v>Number Of Persons Screened For Cholera</v>
-      </c>
-      <c r="D21" t="str">
-        <v>yes</v>
+        <v>Cholera Cases</v>
       </c>
       <c r="F21" t="str">
-        <v>numbers</v>
-      </c>
-      <c r="G21" t="str">
-        <v>.&gt;=0</v>
-      </c>
-      <c r="H21" t="str">
-        <v>Number should be greater or equal to zero</v>
+        <v>field-list</v>
       </c>
     </row>
     <row r="22">
@@ -775,10 +769,10 @@
         <v>integer</v>
       </c>
       <c r="B22" t="str">
-        <v>num_referred</v>
+        <v>num_screened</v>
       </c>
       <c r="C22" t="str">
-        <v>Number Of Presumptive Cholera Persons Referred For Diagnosis</v>
+        <v>Number Of Persons Screened For Cholera</v>
       </c>
       <c r="D22" t="str">
         <v>yes</v>
@@ -798,25 +792,22 @@
         <v>integer</v>
       </c>
       <c r="B23" t="str">
-        <v>num_referred_reached</v>
+        <v>num_referred</v>
       </c>
       <c r="C23" t="str">
-        <v>Number Of Referred Persons Who Reached Health Facility</v>
+        <v>Number Of Presumptive Cholera Persons Referred For Diagnosis</v>
       </c>
       <c r="D23" t="str">
         <v>yes</v>
       </c>
-      <c r="E23" t="str">
-        <v>${num_referred} &gt;0</v>
-      </c>
       <c r="F23" t="str">
         <v>numbers</v>
       </c>
       <c r="G23" t="str">
-        <v>.&lt;=${num_referred}</v>
+        <v>.&gt;=0</v>
       </c>
       <c r="H23" t="str">
-        <v>Number cannot exceed those referred</v>
+        <v>Number should be greater or equal to zero</v>
       </c>
     </row>
     <row r="24">
@@ -824,22 +815,25 @@
         <v>integer</v>
       </c>
       <c r="B24" t="str">
-        <v>num_confirmed_cases</v>
+        <v>num_referred_reached</v>
       </c>
       <c r="C24" t="str">
-        <v>Number Of Confirmed Cholera Cases At Health Facility</v>
+        <v>Number Of Referred Persons Who Reached Health Facility</v>
       </c>
       <c r="D24" t="str">
         <v>yes</v>
       </c>
+      <c r="E24" t="str">
+        <v>${num_referred} &gt;0</v>
+      </c>
       <c r="F24" t="str">
         <v>numbers</v>
       </c>
       <c r="G24" t="str">
-        <v>.&gt;=0</v>
+        <v>.&lt;=${num_referred}</v>
       </c>
       <c r="H24" t="str">
-        <v>Number should be greater or equal to zero</v>
+        <v>Number cannot exceed those referred</v>
       </c>
     </row>
     <row r="25">
@@ -847,10 +841,10 @@
         <v>integer</v>
       </c>
       <c r="B25" t="str">
-        <v>num_deaths</v>
+        <v>num_confirmed_cases</v>
       </c>
       <c r="C25" t="str">
-        <v>Number Of Deaths Due To Cholera In The Month</v>
+        <v>Number Of Confirmed Cholera Cases At Health Facility</v>
       </c>
       <c r="D25" t="str">
         <v>yes</v>
@@ -867,47 +861,47 @@
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>end group</v>
+        <v>integer</v>
       </c>
       <c r="B26" t="str">
-        <v>cholera_cases</v>
+        <v>num_deaths</v>
+      </c>
+      <c r="C26" t="str">
+        <v>Number Of Deaths Due To Cholera In The Month</v>
+      </c>
+      <c r="D26" t="str">
+        <v>yes</v>
+      </c>
+      <c r="F26" t="str">
+        <v>numbers</v>
+      </c>
+      <c r="G26" t="str">
+        <v>.&gt;=0</v>
+      </c>
+      <c r="H26" t="str">
+        <v>Number should be greater or equal to zero</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>begin group</v>
+        <v>end group</v>
       </c>
       <c r="B27" t="str">
-        <v>community_activities</v>
-      </c>
-      <c r="C27" t="str">
-        <v>Community Activities</v>
-      </c>
-      <c r="F27" t="str">
-        <v>field-list</v>
+        <v>cholera_cases</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>integer</v>
+        <v>begin group</v>
       </c>
       <c r="B28" t="str">
-        <v>total_dialogue_days</v>
+        <v>community_activities</v>
       </c>
       <c r="C28" t="str">
-        <v xml:space="preserve">Total Number Of Dialogue Days Held </v>
-      </c>
-      <c r="D28" t="str">
-        <v>yes</v>
+        <v>Community Activities</v>
       </c>
       <c r="F28" t="str">
-        <v>numbers</v>
-      </c>
-      <c r="G28" t="str">
-        <v>.&gt;=0</v>
-      </c>
-      <c r="H28" t="str">
-        <v>Number should be greater or equal to zero</v>
+        <v>field-list</v>
       </c>
     </row>
     <row r="29">
@@ -915,10 +909,10 @@
         <v>integer</v>
       </c>
       <c r="B29" t="str">
-        <v>total_action_days</v>
+        <v>total_dialogue_days</v>
       </c>
       <c r="C29" t="str">
-        <v xml:space="preserve">Total Number Of Action Days Held </v>
+        <v xml:space="preserve">Total Number Of Dialogue Days Held </v>
       </c>
       <c r="D29" t="str">
         <v>yes</v>
@@ -938,10 +932,10 @@
         <v>integer</v>
       </c>
       <c r="B30" t="str">
-        <v>total_units_meetings_days</v>
+        <v>total_action_days</v>
       </c>
       <c r="C30" t="str">
-        <v xml:space="preserve">Total Number Of Units Meetings Held </v>
+        <v xml:space="preserve">Total Number Of Action Days Held </v>
       </c>
       <c r="D30" t="str">
         <v>yes</v>
@@ -958,15 +952,38 @@
     </row>
     <row r="31">
       <c r="A31" t="str">
+        <v>integer</v>
+      </c>
+      <c r="B31" t="str">
+        <v>total_units_meetings_days</v>
+      </c>
+      <c r="C31" t="str">
+        <v xml:space="preserve">Total Number Of Units Meetings Held </v>
+      </c>
+      <c r="D31" t="str">
+        <v>yes</v>
+      </c>
+      <c r="F31" t="str">
+        <v>numbers</v>
+      </c>
+      <c r="G31" t="str">
+        <v>.&gt;=0</v>
+      </c>
+      <c r="H31" t="str">
+        <v>Number should be greater or equal to zero</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
         <v>end group</v>
       </c>
-      <c r="B31" t="str">
+      <c r="B32" t="str">
         <v>community_activities</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H31"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I32"/>
   </ignoredErrors>
 </worksheet>
 </file>
